--- a/行程表.xlsx
+++ b/行程表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herby\Documents\GitHub\Self_Drive_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99946503-D79A-4073-82FB-44B8F49B0337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD45BA48-887C-4CF9-B575-510F51543734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23955" yWindow="3465" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3465" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行程" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,10 +211,6 @@
   </si>
   <si>
     <t>郑州——南京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -896,9 +892,6 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -910,7 +903,6 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -923,7 +915,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -949,7 +941,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -963,7 +955,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -977,7 +969,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
@@ -991,13 +983,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
       </c>
       <c r="D27">
         <v>450</v>
@@ -1033,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EAA5A-CA46-4506-9FBC-121B3635B0E4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1045,68 +1037,68 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>624</v>
@@ -1114,26 +1106,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
         <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
